--- a/EffortEstimation/PMSheets/PM23_5_19.xlsx
+++ b/EffortEstimation/PMSheets/PM23_5_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C128E2-C336-434F-A3D2-D66B4212B073}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D71F98-6987-4206-B47F-3899FE248EDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -60,9 +60,6 @@
     <t>2h</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>Add new table event to the database</t>
   </si>
   <si>
@@ -72,19 +69,13 @@
     <t>Make new rest-full methods where a user can get updated</t>
   </si>
   <si>
-    <t>Create Invite Component</t>
-  </si>
-  <si>
-    <t>Invite other User</t>
-  </si>
-  <si>
-    <t>Invited user get a notification</t>
-  </si>
-  <si>
-    <t>add a table update to the database</t>
-  </si>
-  <si>
-    <t>invited user can response whenever he join or refuse</t>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>Add Group Pages</t>
+  </si>
+  <si>
+    <t>10min</t>
   </si>
 </sst>
 </file>
@@ -436,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F2C8F5-78B6-4FD6-848E-31F3B1C084B5}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +458,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -478,10 +469,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -489,10 +486,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -503,53 +506,15 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
